--- a/medicine/Mort/Urban_Legend_2___Coup_de_grâce/Urban_Legend_2___Coup_de_grâce.xlsx
+++ b/medicine/Mort/Urban_Legend_2___Coup_de_grâce/Urban_Legend_2___Coup_de_grâce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urban Legend 2 : Coup de grâce ou Légendes urbaines : La suite au Québec (Urban Legends: Final Cut) est un film américain réalisé par John Ottman sorti en 2000. C'est le second volet de la trilogie Urban Legend.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Des étudiants en cinéma de Alpine University sont en concurrence pour remporter un prix leur permettant de faire un film à Hollywood. Travis, le meilleur étudiant de l'Université, est celui qui est considéré comme étant le grand vainqueur de ce prix néanmoins il reçoit une note médiocre pour son film. À la suite de cet échec, il décide de se suicider. Peu après, toutes les personnes ayant travaillé sur son film sont tuées les unes après les autres par un inconnu spécialiste de légendes urbaines. Trevor, le frère jumeau de Travis, est lui persuadé que son frère n'est pas mort suicidé et décide d'enquêter. Il est aidé par Amy, une jeune étudiante qui, elle-même, tourne un film d'horreur sur les légendes urbaines.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Urban Legends: Final Cut
 Titre français : Urban Legend 2 : Coup de grâce
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,7 +604,9 @@
           <t>Distribution complète</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jennifer Morrison (VF : Véronique Desmadryl) : Amy Mayfield
 Matthew Davis (VF : Antoine Doignon) : Travis Stark / Trevor Stark
@@ -631,7 +649,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -649,14 +667,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 2001, Urban Legend 2 a été sélectionné 3 fois dans diverses catégories et a remporté 1 récompense[1].
-Récompenses
-Prix Teen Choice : Prix Teen Choice du meilleur film Horreur / Thriller.
-Nominations
-Académie des films de science-fiction, fantastique et d'horreur - Saturn Awards 2001 : meilleur film d'horreur.
-Prix Fangoria Chainsaw 2001 : pire film.</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2001, Urban Legend 2 a été sélectionné 3 fois dans diverses catégories et a remporté 1 récompense.
+</t>
         </is>
       </c>
     </row>
@@ -666,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -681,10 +697,85 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Teen Choice : Prix Teen Choice du meilleur film Horreur / Thriller.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Académie des films de science-fiction, fantastique et d'horreur - Saturn Awards 2001 : meilleur film d'horreur.
+Prix Fangoria Chainsaw 2001 : pire film.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Urban_Legend_2_:_Coup_de_grâce</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urban_Legend_2_:_Coup_de_gr%C3%A2ce</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Brenda Bates (Rebecca Gayheart) fait une apparition à la fin du film en tant qu'infirmière qui fait sortir le professeur Solomon (Hart Bochner) de son asile où il a été enfermé, ce qui laisse supposer qu'il y aura une suite. Or Urban Legend 3: Bloody Mary n'est pas du tout la suite à proprement parler, bien que l'on parle des événements qui se sont passés dans l'Alpine University.
 On peut y entendre aussi une certaine musique qui nous fait penser au maitre du suspense Alfred Hitchcock.
